--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3056649.305028567</v>
+        <v>3160828.93947964</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>46.27182779876233</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>257.7716304668734</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>12.77486016012221</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6055777962479</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.3398325380157</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>188.480922327564</v>
       </c>
       <c r="W7" t="n">
-        <v>135.5715611843212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.1776403188352</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>243.2395284792073</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>143.2479633591705</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>187.433061197385</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>108.3764982651495</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>35.99871774582764</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.4943254374928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>172.3645574474261</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>54.31367585848648</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2369,13 +2371,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F25" t="n">
-        <v>34.00490843294678</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>41.3370399414308</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>28.45765197016542</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2846,13 +2848,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3062202753121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>13.94435783112388</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>171.4144753991464</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.54490042791004</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.08368458989425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.14989839348825</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495404</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495404</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.748203495404</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>741.9599508971601</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4331,13 +4333,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,37 +4412,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1632.874307521208</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1632.874307521208</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1378.189819315322</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1088.772649278361</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219473</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
         <v>1190.154071768027</v>
@@ -4559,58 +4561,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520486</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520486</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259406</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283594</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.3315924698002</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1226.04029575582</v>
       </c>
       <c r="W7" t="n">
-        <v>833.1137225113476</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="X7" t="n">
-        <v>605.1241716133303</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.3315924698002</v>
+        <v>936.6231257188592</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2106.031998942027</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1737.069482001616</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1378.803783394865</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>993.0155307966209</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>582.0296260070133</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.097597267229</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.631839006149</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2492.631839006149</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1737.96822364669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.201608216216</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.09874134186</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>972.4142531359726</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>682.9970830990119</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>455.0075322009945</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574645</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.841029837709</v>
+        <v>988.1395539230176</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>819.2033709951107</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>669.086731582775</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>521.1736380003819</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,10 +5430,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y16" t="n">
-        <v>782.841029837709</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5503,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5665,10 +5667,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2272.857469997002</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2272.857469997002</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2325.055080985707</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9229991561138</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>817.189422194221</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>667.0727827818853</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>519.1596891994922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388645</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C28" t="n">
-        <v>2770.435951460738</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2418.217980580093</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2235.363146234998</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2015.761681257939</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6494,10 +6496,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2393.887426582372</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1885.210734949511</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V37" t="n">
-        <v>1630.526246743624</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.109076706663</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.119525808646</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7156,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,13 +7675,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.981709809275</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2877.307316025034</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3474.685803651586</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>4102.283767206192</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>4654.19349744548</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>695.5020655703109</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>547.5889719879178</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.23897475306285</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>109.4223302771036</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.09032791460197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>8.661728554218513</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F25" t="n">
-        <v>111.4161395899845</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>107.2784330767816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.91759473995627</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.5257599066252</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>204.6402955209709</v>
       </c>
     </row>
     <row r="32">
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>104.8770068749571</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.7699989900978</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.83034628221165</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>65.75554125013261</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>80.4404537023746</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.27114962944299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639895</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.24609818490405e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26451,13 +26453,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109075</v>
+        <v>-809841.0926109073</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166857</v>
+        <v>518903.6531166852</v>
       </c>
       <c r="D6" t="n">
-        <v>518903.6531166848</v>
+        <v>518903.6531166852</v>
       </c>
       <c r="E6" t="n">
-        <v>267331.3629156756</v>
+        <v>267331.3629156747</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.8247230297</v>
+        <v>592743.8247230303</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.8247230302</v>
+        <v>592743.8247230303</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230302</v>
+        <v>592743.8247230306</v>
       </c>
       <c r="I6" t="n">
         <v>592743.8247230303</v>
       </c>
       <c r="J6" t="n">
-        <v>375212.6223257527</v>
+        <v>375212.6223257528</v>
       </c>
       <c r="K6" t="n">
+        <v>592743.8247230303</v>
+      </c>
+      <c r="L6" t="n">
         <v>592743.8247230304</v>
       </c>
-      <c r="L6" t="n">
-        <v>592743.8247230301</v>
-      </c>
       <c r="M6" t="n">
-        <v>507688.7967875184</v>
+        <v>507688.7967875185</v>
       </c>
       <c r="N6" t="n">
+        <v>592743.8247230306</v>
+      </c>
+      <c r="O6" t="n">
+        <v>592743.8247230302</v>
+      </c>
+      <c r="P6" t="n">
         <v>592743.8247230303</v>
-      </c>
-      <c r="O6" t="n">
-        <v>592743.8247230301</v>
-      </c>
-      <c r="P6" t="n">
-        <v>592743.82472303</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26792,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27261,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>319.0010639722452</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>149.1044152748381</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>206.774089116047</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>57.66731397475968</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.34320908266722</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>63.65672099626397</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9514371522698</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>236.7440853346182</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>7.755643479694697</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>5.3675096590419</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.335964134056866</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29566,13 +29568,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30754,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>485.1127032082916</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753698</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175677</v>
@@ -32309,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>260.1710714068256</v>
+        <v>268.1779244693588</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33736,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173358</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34211,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772173</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5164587638472</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533515</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35887,7 +35889,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>160.8335108287862</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>122.3296324324666</v>
+        <v>130.3364854949998</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028583389</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3160828.93947964</v>
+        <v>3156816.329465647</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>46.27182779876233</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>99.84252126103591</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>12.77486016012221</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>29.53463786574871</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>335.3398325380157</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>56.98500889837879</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>188.480922327564</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340846</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>243.2395284792073</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>143.2479633591705</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.3764982651495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.094868103306</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.99871774582764</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487373</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>54.31367585848648</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.45765197016542</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>171.4144753991464</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>220.4289331391115</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>285.5970594671152</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U43" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3224.754790032366</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3018.777042416588</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2765.246565690425</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189674</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1632.874307521208</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1632.874307521208</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="V4" t="n">
-        <v>1378.189819315322</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>1088.772649278361</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>860.7830983803434</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1914.669427940025</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1914.669427940025</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1226.04029575582</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>936.6231257188592</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>936.6231257188592</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>936.6231257188592</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2763.640912107148</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2763.640912107148</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.4688890257555</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>308.5327060978486</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.1173538559952</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075806</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343197</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2020.199042352916</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1731.123815697113</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1476.439327491226</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.1395539230176</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>819.2033709951107</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>669.086731582775</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>521.1736380003819</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5433,7 +5433,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.987318831765</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1618.570148794805</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.580597896787</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.788018753257</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
-        <v>2311.700279152292</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.8461362382112</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>472.9099533103043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2325.055080985707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2105.453616008648</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1816.378389352846</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1561.693901146959</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1272.276731109998</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1044.287180211981</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>823.4946010684509</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2418.217980580093</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1726.686454602137</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.686454602137</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1811.200273012738</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1556.515784806851</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.09861476989</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1039.109063871873</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.23897475306285</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>42.31058222398227</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>109.4223302771036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.91759473995627</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.7699989900978</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>65.75554125013261</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5874149221289713</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U43" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="7">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181808</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109073</v>
+        <v>-809841.0926109074</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166852</v>
+        <v>518903.6531166851</v>
       </c>
       <c r="D6" t="n">
         <v>518903.6531166852</v>
       </c>
       <c r="E6" t="n">
-        <v>267331.3629156747</v>
+        <v>266983.9836613176</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686734</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230306</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="I6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="J6" t="n">
-        <v>375212.6223257528</v>
+        <v>374865.2430713958</v>
       </c>
       <c r="K6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686737</v>
       </c>
       <c r="L6" t="n">
-        <v>592743.8247230304</v>
+        <v>592396.4454686734</v>
       </c>
       <c r="M6" t="n">
-        <v>507688.7967875185</v>
+        <v>507341.4175331618</v>
       </c>
       <c r="N6" t="n">
-        <v>592743.8247230306</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="O6" t="n">
-        <v>592743.8247230302</v>
+        <v>592396.4454686732</v>
       </c>
       <c r="P6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686737</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>319.0010639722452</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>9.345240527139921</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>206.774089116047</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>256.6772003398642</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19.34320908266722</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>349.8910368433326</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>63.65672099626397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076269</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>7.755643479694697</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3675096590419</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.345298828802896e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175677</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>309.9424824173358</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997562</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35889,7 +35889,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35971,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>167.3462379728913</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3156816.329465647</v>
+        <v>3158576.859768433</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>144.4999706001782</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.84252126103591</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>104.3285722275978</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>29.53463786574871</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>56.98500889837879</v>
+        <v>129.9677809246395</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.70057996958639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340846</v>
+        <v>129.1643093334208</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>175.094868103306</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266638</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.4649598217091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>925.127733241226</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3224.754790032366</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3018.777042416588</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2765.246565690425</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4391,70 +4391,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1394.178623701213</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V4" t="n">
-        <v>1394.178623701213</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W4" t="n">
-        <v>1394.178623701213</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="X4" t="n">
-        <v>1166.189072803195</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033361</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965857</v>
+        <v>1040.650304738528</v>
       </c>
       <c r="E5" t="n">
-        <v>581.1420803965857</v>
+        <v>654.8620521402834</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4722,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4764,13 +4764,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4786,37 +4786,37 @@
         <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744055</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761612</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
         <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
         <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5004,10 +5004,10 @@
         <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5071,7 +5071,7 @@
         <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5117,16 +5117,16 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2020.199042352916</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1731.123815697113</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1476.439327491226</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.022157454266</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5706,7 +5706,7 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
         <v>1491.508541327549</v>
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,16 +6223,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6609,16 +6609,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>42.31058222398227</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.15184655856211</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
@@ -26325,37 +26325,37 @@
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181805</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109074</v>
+        <v>-809841.0926109077</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166851</v>
+        <v>518903.6531166856</v>
       </c>
       <c r="D6" t="n">
-        <v>518903.6531166852</v>
+        <v>518903.6531166853</v>
       </c>
       <c r="E6" t="n">
-        <v>266983.9836613176</v>
+        <v>267296.6249902392</v>
       </c>
       <c r="F6" t="n">
-        <v>592396.4454686734</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="G6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="H6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="I6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="J6" t="n">
-        <v>374865.2430713958</v>
+        <v>375177.8844003171</v>
       </c>
       <c r="K6" t="n">
-        <v>592396.4454686737</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="L6" t="n">
-        <v>592396.4454686734</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="M6" t="n">
-        <v>507341.4175331618</v>
+        <v>507654.0588620828</v>
       </c>
       <c r="N6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="O6" t="n">
-        <v>592396.4454686732</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="P6" t="n">
-        <v>592396.4454686737</v>
+        <v>592709.0867975949</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>262.3760751415333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.345240527139921</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>75.50340795433949</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>256.6772003398642</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.8910368433326</v>
+        <v>276.9082648170719</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076269</v>
+        <v>277.7117364082906</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28143,10 +28143,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.487407375954916e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.345298828802896e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543346</v>
+        <v>175.6052721551104</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997562</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
